--- a/每天出工統計表範本.xlsx
+++ b/每天出工統計表範本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssw/Documents/爸出工表/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52642B07-C56C-4B4E-93FF-0EDE0A92D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42866693-6A8F-864A-92C4-4D3E8C585EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 天氣 : </t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>晴</t>
@@ -1351,173 +1348,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2756,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.75" customHeight="1"/>
@@ -2779,38 +2776,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="12" customHeight="1">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="103" t="s">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -2828,36 +2825,36 @@
       <c r="AS1" s="4"/>
     </row>
     <row r="2" spans="1:45" ht="12" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
@@ -2875,36 +2872,36 @@
       <c r="AS2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="12" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -2922,41 +2919,39 @@
       <c r="AS3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="21.5" customHeight="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="123">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="72">
         <f ca="1">TODAY()</f>
-        <v>45860</v>
-      </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126" t="s">
+        <v>45862</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="127"/>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="79"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -2982,46 +2977,46 @@
       <c r="AS4" s="4"/>
     </row>
     <row r="5" spans="1:45" ht="18.5" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="107" t="s">
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="108"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="104"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -3039,42 +3034,42 @@
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="109"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="84"/>
       <c r="AE6" s="14"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
@@ -3093,94 +3088,94 @@
     </row>
     <row r="7" spans="1:45" ht="23" customHeight="1">
       <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="M7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Q7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="S7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="W7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="X7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="Y7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="AA7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AB7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AC7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="16" t="s">
+      <c r="AD7" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="2"/>
@@ -3206,7 +3201,7 @@
         <v>22405</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3218,7 +3213,7 @@
         <v>22563</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3230,7 +3225,7 @@
         <v>22412</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -3242,7 +3237,7 @@
         <v>22561</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -3254,7 +3249,7 @@
         <v>22690</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -3283,7 +3278,7 @@
         <v>22479</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3295,7 +3290,7 @@
         <v>22568</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3307,7 +3302,7 @@
         <v>22414</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3319,7 +3314,7 @@
         <v>22611</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -3331,7 +3326,7 @@
         <v>22410</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -3360,7 +3355,7 @@
         <v>22480</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3372,7 +3367,7 @@
         <v>22569</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3384,7 +3379,7 @@
         <v>22601</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -3396,7 +3391,7 @@
         <v>22615</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3408,7 +3403,7 @@
         <v>22807</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -3437,7 +3432,7 @@
         <v>22594</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3449,7 +3444,7 @@
         <v>22625</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3461,7 +3456,7 @@
         <v>22663</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -3473,7 +3468,7 @@
         <v>22647</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -3508,7 +3503,7 @@
         <v>22775</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3520,7 +3515,7 @@
         <v>22720</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3532,7 +3527,7 @@
         <v>22694</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -3544,7 +3539,7 @@
         <v>22740</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -3585,7 +3580,7 @@
         <v>22762</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3597,7 +3592,7 @@
         <v>22696</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -3608,14 +3603,14 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="74"/>
+      <c r="Y13" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="85"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3646,7 +3641,7 @@
         <v>22767</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3658,7 +3653,7 @@
         <v>22739</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -3670,22 +3665,22 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Z14" s="12" t="s">
+      <c r="AA14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AB14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AB14" s="12" t="s">
+      <c r="AC14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AD14" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="AD14" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="AE14" s="14"/>
       <c r="AF14" s="5"/>
@@ -3717,7 +3712,7 @@
         <v>22773</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3729,7 +3724,7 @@
         <v>22758</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -3747,7 +3742,7 @@
         <v>22476</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -3782,7 +3777,7 @@
         <v>22819</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3794,19 +3789,19 @@
         <v>22809</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
+      <c r="S16" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
       <c r="Y16" s="19">
         <v>2</v>
       </c>
@@ -3814,7 +3809,7 @@
         <v>22542</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -3855,28 +3850,28 @@
         <v>22822</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="U17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="V17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="W17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="X17" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="Y17" s="21">
         <v>3</v>
@@ -3885,7 +3880,7 @@
         <v>22626</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -3932,7 +3927,7 @@
         <v>22408</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -3944,7 +3939,7 @@
         <v>22642</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -3991,7 +3986,7 @@
         <v>22554</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -4003,7 +3998,7 @@
         <v>22777</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -4050,7 +4045,7 @@
         <v>22565</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -4062,7 +4057,7 @@
         <v>22780</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -4084,30 +4079,30 @@
       <c r="AS20" s="4"/>
     </row>
     <row r="21" spans="1:45" ht="15" customHeight="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="72" t="s">
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
       <c r="S21" s="21">
         <v>4</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>22665</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -4144,58 +4139,58 @@
     </row>
     <row r="22" spans="1:45" ht="15" customHeight="1">
       <c r="A22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="G22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="M22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="S22" s="19">
         <v>5</v>
@@ -4204,7 +4199,7 @@
         <v>22814</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -4239,7 +4234,7 @@
         <v>22513</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4251,7 +4246,7 @@
         <v>22586</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4263,7 +4258,7 @@
         <v>22505</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -4304,7 +4299,7 @@
         <v>22514</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4316,7 +4311,7 @@
         <v>22685</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4328,7 +4323,7 @@
         <v>22509</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -4369,7 +4364,7 @@
         <v>22595</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4381,7 +4376,7 @@
         <v>22815</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4393,27 +4388,27 @@
         <v>22531</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="72" t="s">
+      <c r="S25" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="74"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="85"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -4438,7 +4433,7 @@
         <v>22736</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4450,7 +4445,7 @@
         <v>22816</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4462,46 +4457,46 @@
         <v>22545</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="U26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="V26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="W26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W26" s="12" t="s">
+      <c r="X26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="Y26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="AA26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AB26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AC26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AD26" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="AD26" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="AE26" s="14"/>
       <c r="AF26" s="5"/>
@@ -4527,7 +4522,7 @@
         <v>22764</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4539,7 +4534,7 @@
         <v>22817</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4551,7 +4546,7 @@
         <v>22704</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4563,7 +4558,7 @@
         <v>22735</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -4575,7 +4570,7 @@
         <v>22404</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4604,7 +4599,7 @@
         <v>22776</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -4616,7 +4611,7 @@
         <v>22818</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4628,7 +4623,7 @@
         <v>22801</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -4646,7 +4641,7 @@
         <v>22495</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -4681,7 +4676,7 @@
         <v>22823</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4693,7 +4688,7 @@
         <v>22820</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -4711,7 +4706,7 @@
         <v>22636</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4746,7 +4741,7 @@
         <v>22824</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4758,7 +4753,7 @@
         <v>22825</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -4776,7 +4771,7 @@
         <v>22695</v>
       </c>
       <c r="AA30" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -4811,7 +4806,7 @@
         <v>22828</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4823,19 +4818,19 @@
         <v>22827</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
+      <c r="S31" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
       <c r="Y31" s="21">
         <v>5</v>
       </c>
@@ -4843,18 +4838,18 @@
         <v>22784</v>
       </c>
       <c r="AA31" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="22"/>
       <c r="AE31" s="10"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
@@ -4884,22 +4879,22 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="U32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="V32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="12" t="s">
+      <c r="W32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W32" s="12" t="s">
+      <c r="X32" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="X32" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="Y32" s="19">
         <v>6</v>
@@ -4908,7 +4903,7 @@
         <v>22802</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -4955,7 +4950,7 @@
         <v>22589</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -5008,7 +5003,7 @@
         <v>22810</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
@@ -5477,22 +5472,22 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="102" t="s">
+      <c r="S44" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" s="83"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="83"/>
+      <c r="X44" s="83"/>
+      <c r="Y44" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="99"/>
-      <c r="W44" s="99"/>
-      <c r="X44" s="99"/>
-      <c r="Y44" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="109"/>
+      <c r="Z44" s="83"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="83"/>
+      <c r="AC44" s="83"/>
+      <c r="AD44" s="84"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
@@ -5510,65 +5505,65 @@
       <c r="AS44" s="4"/>
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="72" t="s">
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
       <c r="S45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="16" t="s">
+      <c r="U45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U45" s="16" t="s">
+      <c r="V45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V45" s="16" t="s">
+      <c r="W45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="16" t="s">
+      <c r="X45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="Y45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Z45" s="16" t="s">
+      <c r="AA45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA45" s="16" t="s">
+      <c r="AB45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AB45" s="16" t="s">
+      <c r="AC45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AC45" s="16" t="s">
+      <c r="AD45" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="AD45" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="AE45" s="10"/>
       <c r="AF45" s="2"/>
@@ -5588,58 +5583,58 @@
     </row>
     <row r="46" spans="1:45" ht="23" customHeight="1">
       <c r="A46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="G46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="I46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="K46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="L46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="M46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="O46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="P46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="Q46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="S46" s="19">
         <v>1</v>
@@ -5648,7 +5643,7 @@
         <v>22474</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
@@ -5660,7 +5655,7 @@
         <v>22559</v>
       </c>
       <c r="AA46" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -5689,7 +5684,7 @@
         <v>22467</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5701,7 +5696,7 @@
         <v>22401</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -5713,7 +5708,7 @@
         <v>22487</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -5725,7 +5720,7 @@
         <v>22579</v>
       </c>
       <c r="U47" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -5737,7 +5732,7 @@
         <v>22598</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -5766,7 +5761,7 @@
         <v>22666</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -5778,7 +5773,7 @@
         <v>22599</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5790,7 +5785,7 @@
         <v>22792</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -5802,7 +5797,7 @@
         <v>22627</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
@@ -5814,7 +5809,7 @@
         <v>22652</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -5843,7 +5838,7 @@
         <v>22667</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -5855,7 +5850,7 @@
         <v>22676</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5867,7 +5862,7 @@
         <v>22494</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -5879,7 +5874,7 @@
         <v>22770</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
@@ -5891,7 +5886,7 @@
         <v>22714</v>
       </c>
       <c r="AA49" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -5926,7 +5921,7 @@
         <v>22768</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -5938,7 +5933,7 @@
         <v>22805</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -5950,7 +5945,7 @@
         <v>22785</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
@@ -5962,7 +5957,7 @@
         <v>22748</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -6015,7 +6010,7 @@
         <v>22750</v>
       </c>
       <c r="AA51" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -6068,7 +6063,7 @@
         <v>22771</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -6121,7 +6116,7 @@
         <v>22781</v>
       </c>
       <c r="AA53" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
@@ -6174,7 +6169,7 @@
         <v>22811</v>
       </c>
       <c r="AA54" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -6196,36 +6191,36 @@
       <c r="AS54" s="4"/>
     </row>
     <row r="55" spans="1:45" ht="15" customHeight="1">
-      <c r="A55" s="111" t="s">
+      <c r="A55" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="73"/>
+      <c r="S55" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
       <c r="Y55" s="21">
         <v>10</v>
       </c>
@@ -6233,7 +6228,7 @@
         <v>22812</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
@@ -6256,40 +6251,40 @@
     </row>
     <row r="56" spans="1:45" ht="15" customHeight="1">
       <c r="A56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="G56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="I56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="K56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="L56" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -6298,22 +6293,22 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T56" s="12" t="s">
+      <c r="U56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U56" s="12" t="s">
+      <c r="V56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V56" s="12" t="s">
+      <c r="W56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W56" s="12" t="s">
+      <c r="X56" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="X56" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
@@ -6345,7 +6340,7 @@
         <v>22630</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -6357,7 +6352,7 @@
         <v>22631</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6375,19 +6370,19 @@
         <v>22463</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z57" s="73"/>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="74"/>
+      <c r="Y57" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="85"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
@@ -6412,7 +6407,7 @@
         <v>22648</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6436,28 +6431,28 @@
         <v>22719</v>
       </c>
       <c r="U58" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Z58" s="12" t="s">
+      <c r="AA58" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AA58" s="12" t="s">
+      <c r="AB58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AB58" s="12" t="s">
+      <c r="AC58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC58" s="12" t="s">
+      <c r="AD58" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="AD58" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="AE58" s="14"/>
       <c r="AF58" s="5"/>
@@ -6483,7 +6478,7 @@
         <v>22797</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -6507,7 +6502,7 @@
         <v>22749</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -6519,7 +6514,7 @@
         <v>22509</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
@@ -6548,7 +6543,7 @@
         <v>22402</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -6578,7 +6573,7 @@
         <v>22531</v>
       </c>
       <c r="AA60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -6647,56 +6642,58 @@
       <c r="AS61" s="28"/>
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="112"/>
+      <c r="C62" s="124">
+        <v>0</v>
+      </c>
+      <c r="D62" s="107"/>
+      <c r="E62" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="78">
-        <v>0</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="106">
+        <v>0</v>
+      </c>
+      <c r="L62" s="107"/>
+      <c r="M62" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="30"/>
+      <c r="O62" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N62" s="30"/>
-      <c r="O62" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="77"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="112"/>
       <c r="T62" s="31">
         <v>0</v>
       </c>
       <c r="U62" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V62" s="32"/>
-      <c r="W62" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="X62" s="76"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="77"/>
-      <c r="AA62" s="78">
+      <c r="W62" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="112"/>
+      <c r="AA62" s="124">
         <v>0</v>
       </c>
-      <c r="AB62" s="79"/>
+      <c r="AB62" s="107"/>
       <c r="AC62" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD62" s="33"/>
       <c r="AE62" s="10"/>
@@ -6716,58 +6713,58 @@
       <c r="AS62" s="2"/>
     </row>
     <row r="63" spans="1:45" ht="15" customHeight="1">
-      <c r="A63" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="82"/>
-      <c r="C63" s="86">
+      <c r="A63" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="115"/>
+      <c r="C63" s="125">
         <v>0</v>
       </c>
-      <c r="D63" s="87"/>
+      <c r="D63" s="109"/>
       <c r="E63" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="80" t="s">
+      <c r="H63" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="108">
+        <v>0</v>
+      </c>
+      <c r="L63" s="109"/>
+      <c r="M63" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="35"/>
+      <c r="O63" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="95">
-        <v>0</v>
-      </c>
-      <c r="L63" s="87"/>
-      <c r="M63" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N63" s="35"/>
-      <c r="O63" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="82"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="115"/>
       <c r="T63" s="36">
         <v>0</v>
       </c>
       <c r="U63" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V63" s="35"/>
-      <c r="W63" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="X63" s="81"/>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="82"/>
-      <c r="AA63" s="86">
+      <c r="W63" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="X63" s="114"/>
+      <c r="Y63" s="114"/>
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="125">
         <v>0</v>
       </c>
-      <c r="AB63" s="87"/>
+      <c r="AB63" s="109"/>
       <c r="AC63" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD63" s="37"/>
       <c r="AE63" s="14"/>
@@ -6787,58 +6784,58 @@
       <c r="AS63" s="5"/>
     </row>
     <row r="64" spans="1:45" ht="15" customHeight="1">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="120"/>
+      <c r="C64" s="126">
+        <v>0</v>
+      </c>
+      <c r="D64" s="117"/>
+      <c r="E64" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="39"/>
+      <c r="G64" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="88">
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="116">
         <v>0</v>
       </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="83" t="s">
+      <c r="L64" s="117"/>
+      <c r="M64" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" s="39"/>
+      <c r="O64" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="98">
-        <v>0</v>
-      </c>
-      <c r="L64" s="89"/>
-      <c r="M64" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="N64" s="39"/>
-      <c r="O64" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="85"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="120"/>
       <c r="T64" s="40">
         <v>0</v>
       </c>
       <c r="U64" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V64" s="39"/>
-      <c r="W64" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="X64" s="84"/>
-      <c r="Y64" s="84"/>
-      <c r="Z64" s="85"/>
-      <c r="AA64" s="88">
+      <c r="W64" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="X64" s="119"/>
+      <c r="Y64" s="119"/>
+      <c r="Z64" s="120"/>
+      <c r="AA64" s="126">
         <v>0</v>
       </c>
-      <c r="AB64" s="89"/>
+      <c r="AB64" s="117"/>
       <c r="AC64" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD64" s="41"/>
       <c r="AE64" s="14"/>
@@ -6858,38 +6855,38 @@
       <c r="AS64" s="5"/>
     </row>
     <row r="65" spans="1:45" ht="31.25" customHeight="1">
-      <c r="A65" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="118"/>
-      <c r="Y65" s="118"/>
-      <c r="Z65" s="118"/>
-      <c r="AA65" s="118"/>
-      <c r="AB65" s="118"/>
-      <c r="AC65" s="118"/>
-      <c r="AD65" s="119"/>
+      <c r="A65" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="89"/>
+      <c r="V65" s="89"/>
+      <c r="W65" s="89"/>
+      <c r="X65" s="89"/>
+      <c r="Y65" s="89"/>
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="89"/>
+      <c r="AB65" s="89"/>
+      <c r="AC65" s="89"/>
+      <c r="AD65" s="90"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
@@ -6907,49 +6904,49 @@
       <c r="AS65" s="43"/>
     </row>
     <row r="66" spans="1:45" ht="12" customHeight="1">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="94">
+        <v>110</v>
+      </c>
+      <c r="E66" s="92"/>
+      <c r="F66" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="92"/>
+      <c r="H66" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="122">
-        <v>110</v>
-      </c>
-      <c r="E66" s="97"/>
-      <c r="F66" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="97"/>
-      <c r="H66" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="122" cm="1">
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="94" cm="1">
         <f t="array" ref="L66">D66-C62-K62-T62-AA62-C63-K63-T63-AA63-C64-K64-T64-AA64</f>
         <v>110</v>
       </c>
-      <c r="M66" s="97"/>
-      <c r="N66" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="O66" s="99"/>
-      <c r="P66" s="99"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="99"/>
-      <c r="S66" s="99"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="99"/>
-      <c r="V66" s="99"/>
-      <c r="W66" s="99"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="99"/>
-      <c r="Z66" s="99"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="99"/>
-      <c r="AC66" s="99"/>
-      <c r="AD66" s="109"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="83"/>
+      <c r="W66" s="83"/>
+      <c r="X66" s="83"/>
+      <c r="Y66" s="83"/>
+      <c r="Z66" s="83"/>
+      <c r="AA66" s="83"/>
+      <c r="AB66" s="83"/>
+      <c r="AC66" s="83"/>
+      <c r="AD66" s="84"/>
       <c r="AE66" s="14"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
@@ -6967,36 +6964,36 @@
       <c r="AS66" s="4"/>
     </row>
     <row r="67" spans="1:45" ht="12" customHeight="1">
-      <c r="A67" s="121"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="97"/>
-      <c r="M67" s="97"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="73"/>
-      <c r="R67" s="73"/>
-      <c r="S67" s="73"/>
-      <c r="T67" s="73"/>
-      <c r="U67" s="73"/>
-      <c r="V67" s="73"/>
-      <c r="W67" s="73"/>
-      <c r="X67" s="73"/>
-      <c r="Y67" s="73"/>
-      <c r="Z67" s="73"/>
-      <c r="AA67" s="73"/>
-      <c r="AB67" s="73"/>
-      <c r="AC67" s="73"/>
-      <c r="AD67" s="74"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="76"/>
+      <c r="P67" s="76"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="76"/>
+      <c r="S67" s="76"/>
+      <c r="T67" s="76"/>
+      <c r="U67" s="76"/>
+      <c r="V67" s="76"/>
+      <c r="W67" s="76"/>
+      <c r="X67" s="76"/>
+      <c r="Y67" s="76"/>
+      <c r="Z67" s="76"/>
+      <c r="AA67" s="76"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="76"/>
+      <c r="AD67" s="85"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
@@ -7014,16 +7011,16 @@
       <c r="AS67" s="4"/>
     </row>
     <row r="68" spans="1:45" ht="12" customHeight="1">
-      <c r="A68" s="115"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -7061,42 +7058,42 @@
       <c r="AS68" s="4"/>
     </row>
     <row r="69" spans="1:45" ht="43.75" customHeight="1">
-      <c r="A69" s="116" t="s">
+      <c r="A69" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="112" t="s">
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="T69" s="113"/>
-      <c r="U69" s="113"/>
-      <c r="V69" s="113"/>
-      <c r="W69" s="113"/>
-      <c r="X69" s="113"/>
-      <c r="Y69" s="113"/>
-      <c r="Z69" s="113"/>
-      <c r="AA69" s="113"/>
-      <c r="AB69" s="113"/>
-      <c r="AC69" s="113"/>
-      <c r="AD69" s="114"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="81"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="81"/>
+      <c r="AB69" s="81"/>
+      <c r="AC69" s="81"/>
+      <c r="AD69" s="82"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
@@ -7134,7 +7131,7 @@
       <c r="R70" s="44"/>
       <c r="S70" s="44"/>
       <c r="T70" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U70" s="44"/>
       <c r="V70" s="44"/>
@@ -7164,32 +7161,29 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="S69:AD69"/>
-    <mergeCell ref="O66:AD67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="H66:K67"/>
-    <mergeCell ref="L66:M67"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="S25:X25"/>
-    <mergeCell ref="Y25:AD25"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="Y44:AD44"/>
-    <mergeCell ref="S44:X44"/>
-    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="Y57:AD57"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AB62"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="W64:Z64"/>
+    <mergeCell ref="AA63:AB63"/>
+    <mergeCell ref="AA64:AB64"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="O64:S64"/>
     <mergeCell ref="AF31:AK31"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="M6:R6"/>
@@ -7206,29 +7200,32 @@
     <mergeCell ref="Y13:AD13"/>
     <mergeCell ref="S16:X16"/>
     <mergeCell ref="G21:L21"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="Y57:AD57"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AB62"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="W64:Z64"/>
-    <mergeCell ref="AA63:AB63"/>
-    <mergeCell ref="AA64:AB64"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="Y25:AD25"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="Y44:AD44"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="S69:AD69"/>
+    <mergeCell ref="O66:AD67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="F66:G67"/>
+    <mergeCell ref="H66:K67"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055100000000005" right="0.55118100000000003" top="0.59055100000000005" bottom="0.19685" header="0.19685" footer="0.19685"/>
@@ -7245,7 +7242,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.25" customHeight="1"/>
@@ -7270,7 +7267,7 @@
     <row r="1" spans="1:15" ht="15.5" customHeight="1">
       <c r="A1" s="46"/>
       <c r="B1" s="128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="129"/>
       <c r="D1" s="129"/>
@@ -7294,12 +7291,12 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="131"/>
       <c r="I2" s="47" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">TODAY()</f>
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
@@ -7327,46 +7324,46 @@
     </row>
     <row r="4" spans="1:15" ht="31.25" customHeight="1">
       <c r="A4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="E4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="F4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="G4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="H4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="J4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="K4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="L4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="53" t="s">
         <v>70</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>71</v>
       </c>
       <c r="O4" s="54"/>
     </row>
